--- a/Clases/Trilateracion 10-23-2023.xlsx
+++ b/Clases/Trilateracion 10-23-2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Metodos\Clases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\metodos\Metodos\Clases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FF890F5-0B4E-4C1D-AD3D-0E18CA238FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA0A43F-743E-4C7F-AED7-18D84A834A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A10890A0-78A6-446F-BAE0-9B49167E9590}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A10890A0-78A6-446F-BAE0-9B49167E9590}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="178" formatCode="0.00000000000000E+00"/>
-    <numFmt numFmtId="182" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -300,34 +300,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,127 +642,127 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="P5" sqref="P5:P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.44140625" customWidth="1"/>
-    <col min="17" max="17" width="19.88671875" customWidth="1"/>
-    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" customWidth="1"/>
+    <col min="18" max="18" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="10">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>2</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>2.2360000000000002</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f>J7^2+J8^2+J9^2</f>
         <v>6.9100410566996359E-8</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>3.9999976981009913</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>1.0001427924038966</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="8">
         <v>0.1</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="16">
         <v>3.9999825459443601</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="16">
         <v>1.0000891220436705</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="18">
         <v>8.3143970292994785E-9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C7" s="10">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>6</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>2</v>
       </c>
       <c r="I7" t="s">
@@ -778,30 +775,30 @@
       <c r="K7">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="8">
         <v>1</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="16">
         <v>3.9999825459443601</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="16">
         <v>1.0000891220436705</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="18">
         <v>8.2165442457966283E-9</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="12">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="10">
         <v>3</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>5</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <v>3</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>2.2360000000000002</v>
       </c>
       <c r="I8" t="s">
@@ -814,78 +811,72 @@
       <c r="K8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="8">
         <v>10</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="16">
         <v>3.9999825459443601</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="16">
         <v>1.0000891220436705</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="18">
         <v>8.3443420008214466E-9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>11</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J8:J9" si="0">($K$6-D8)^2+($L$6-E8)^2-F8^2</f>
+        <f t="shared" ref="J9" si="0">($K$6-D8)^2+($L$6-E8)^2-F8^2</f>
         <v>-2.6254542260062408E-4</v>
       </c>
       <c r="K9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="8">
         <v>100</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="16">
         <v>3.9999825459443601</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="16">
         <v>1.0000891220436705</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="18">
         <v>8.2229297846789634E-9</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O10" s="12">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="10">
         <v>1000</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="19">
         <v>3.9999825459443601</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="19">
         <v>1.0000891220436705</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="20">
         <v>8.2229297846789634E-9</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="O11" s="15"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O14" t="s">
         <v>14</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="17">
         <f>MIN(R6:R11)</f>
         <v>8.2165442457966283E-9</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O16" t="s">
         <v>8</v>
       </c>
